--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96658\Desktop\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/mhzayen_desert-technologies_com/Documents/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB35F3D-7A21-4BE4-9801-A2EBD15FAB6E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CFAE343-A478-4E20-964A-5E34772511F6}"/>
   </bookViews>
@@ -71,15 +71,9 @@
     <t>Project Manager</t>
   </si>
   <si>
-    <t>[Project Manager's Name]</t>
-  </si>
-  <si>
     <t>Project Sponsor</t>
   </si>
   <si>
-    <t>[Project Sponsor's Name]</t>
-  </si>
-  <si>
     <t>Budget (USD)</t>
   </si>
   <si>
@@ -90,6 +84,12 @@
   </si>
   <si>
     <t>Other Field 2</t>
+  </si>
+  <si>
+    <t>Ziyad Nasser</t>
+  </si>
+  <si>
+    <t>PCC</t>
   </si>
 </sst>
 </file>
@@ -143,6 +143,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,20 +531,20 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>100000000</v>
@@ -548,18 +552,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -143,10 +143,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/mhzayen_desert-technologies_com/Documents/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB35F3D-7A21-4BE4-9801-A2EBD15FAB6E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6127A7EF-0C86-491A-9D99-6326DCCDBF01}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CFAE343-A478-4E20-964A-5E34772511F6}"/>
   </bookViews>
@@ -86,10 +86,10 @@
     <t>Other Field 2</t>
   </si>
   <si>
-    <t>Ziyad Nasser</t>
-  </si>
-  <si>
-    <t>PCC</t>
+    <t>Mohammad Hzayen</t>
+  </si>
+  <si>
+    <t>STC</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/mhzayen_desert-technologies_com/Documents/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6127A7EF-0C86-491A-9D99-6326DCCDBF01}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A981A39-63DD-40F4-A560-01DCBD3B2A41}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CFAE343-A478-4E20-964A-5E34772511F6}"/>
   </bookViews>
@@ -96,7 +96,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,14 +132,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,7 +478,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +555,7 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>100000000</v>
       </c>
     </row>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/mhzayen_desert-technologies_com/Documents/GitHub/Solar-Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A981A39-63DD-40F4-A560-01DCBD3B2A41}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90D38EBE-F7AE-40BE-A0A5-26EAA1B37B89}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CFAE343-A478-4E20-964A-5E34772511F6}"/>
   </bookViews>
@@ -47,21 +47,12 @@
     <t>Client</t>
   </si>
   <si>
-    <t>NEOM</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>NEOM Bay Airport</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>NEOM, KSA</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -90,6 +81,15 @@
   </si>
   <si>
     <t>STC</t>
+  </si>
+  <si>
+    <t>Saudi Telecom Company</t>
+  </si>
+  <si>
+    <t>NEIDC</t>
+  </si>
+  <si>
+    <t>Riyadh, KSA</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,28 +500,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>45245</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>45838</v>
@@ -537,42 +537,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>100000000</v>
+        <v>90000000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90D38EBE-F7AE-40BE-A0A5-26EAA1B37B89}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D60BA8E8-8BC0-482A-BD26-2306812A6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E739A445-22AB-42E1-92E4-282BE6F17FAC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CFAE343-A478-4E20-964A-5E34772511F6}"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12456" xr2:uid="{6CFAE343-A478-4E20-964A-5E34772511F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Field</t>
   </si>
@@ -66,15 +66,6 @@
   </si>
   <si>
     <t>Budget (USD)</t>
-  </si>
-  <si>
-    <t>Other Field 1</t>
-  </si>
-  <si>
-    <t>[Additional relevant information]</t>
-  </si>
-  <si>
-    <t>Other Field 2</t>
   </si>
   <si>
     <t>Mohammad Hzayen</t>
@@ -475,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC5A722-DF20-49DA-8F9F-6B33200664F7}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -508,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -516,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -540,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -557,22 +548,6 @@
       </c>
       <c r="B9" s="2">
         <v>90000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/project_overview.xlsx
+++ b/project_overview.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
